--- a/figures.xlsx
+++ b/figures.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
   <si>
     <t>MonthlyRevenue</t>
   </si>
@@ -332,16 +333,109 @@
   </si>
   <si>
     <t>11789/12079</t>
+  </si>
+  <si>
+    <t>RF-Pearsons</t>
+  </si>
+  <si>
+    <t>RF-ols</t>
+  </si>
+  <si>
+    <t>RF-rfe</t>
+  </si>
+  <si>
+    <t>RF-lasso</t>
+  </si>
+  <si>
+    <t>RF-full</t>
+  </si>
+  <si>
+    <t>RF-ten</t>
+  </si>
+  <si>
+    <t>RF-twenty</t>
+  </si>
+  <si>
+    <t>KNN-pearsons</t>
+  </si>
+  <si>
+    <t>KNN-ols</t>
+  </si>
+  <si>
+    <t>KNN-rfe</t>
+  </si>
+  <si>
+    <t>KNN-lasso</t>
+  </si>
+  <si>
+    <t>KNN-ten</t>
+  </si>
+  <si>
+    <t>KNN-twenty</t>
+  </si>
+  <si>
+    <t>ROC</t>
+  </si>
+  <si>
+    <t>LGBM1</t>
+  </si>
+  <si>
+    <t>LGBM2</t>
+  </si>
+  <si>
+    <t>2460/4920</t>
+  </si>
+  <si>
+    <t>8789/12079</t>
+  </si>
+  <si>
+    <t>3640/4920</t>
+  </si>
+  <si>
+    <t>6040/12079</t>
+  </si>
+  <si>
+    <t>LGBM 1 &lt; Median No Churn</t>
+  </si>
+  <si>
+    <t>LGBM 1 &lt; Median Churn</t>
+  </si>
+  <si>
+    <t>12 mths</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>50% retained</t>
+  </si>
+  <si>
+    <t>No churn</t>
+  </si>
+  <si>
+    <t>0 retained</t>
+  </si>
+  <si>
+    <t>Total profit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -593,15 +687,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -612,18 +707,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -633,8 +729,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1407,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,114 +1521,75 @@
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="22"/>
-      <c r="M1" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
-    </row>
+    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2">
-        <v>63</v>
+        <v>79</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="23"/>
+      <c r="M2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3">
-        <v>99.7</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="K3" s="6">
-        <v>12079</v>
-      </c>
-      <c r="M3" s="5">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="O3" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="P3" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>12079</v>
+      <c r="G3" s="18"/>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q3" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4">
         <v>99.7</v>
@@ -1537,147 +1598,487 @@
         <v>89</v>
       </c>
       <c r="G4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="I4" s="2">
-        <v>0.06</v>
+        <v>0.98</v>
       </c>
       <c r="J4" s="2">
-        <v>0.11</v>
+        <v>0.83</v>
       </c>
       <c r="K4" s="6">
-        <v>4920</v>
+        <v>12079</v>
       </c>
       <c r="M4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0.47</v>
+        <v>0.72</v>
       </c>
       <c r="O4" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="P4" s="28">
-        <v>0.1</v>
+        <v>0.98</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.83</v>
       </c>
       <c r="Q4" s="6">
-        <v>4920</v>
+        <v>12079</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B5">
         <v>99.7</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="25"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="25"/>
+        <v>89</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4920</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0.47</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>4920</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6">
-        <v>71</v>
+        <v>99.7</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="M6" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.71</v>
-      </c>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="25"/>
+        <v>91</v>
+      </c>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B7">
         <v>71</v>
       </c>
       <c r="C7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="M7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I8" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="25"/>
-      <c r="M7" s="17" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="M8" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O8" s="14">
         <v>5.33E-2</v>
       </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="18" t="s">
+      <c r="P8" s="25"/>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H9" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I9" s="17">
         <v>0.98480000000000001</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="M8" s="18" t="s">
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="M9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="N8" s="15" t="s">
+      <c r="N9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O9" s="30">
         <v>0.97599999999999998</v>
       </c>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="28"/>
+    </row>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B11" s="31">
+        <v>0.672628989908576</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="M11" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="23"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="31">
+        <v>0.671992967032079</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="31">
+        <v>0.50185950621820896</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.78</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.73</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="K13" s="6">
+        <v>12079</v>
+      </c>
+      <c r="M13" s="5">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>12079</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="31">
+        <v>0.51865876879647999</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0.46</v>
+      </c>
+      <c r="K14" s="6">
+        <v>4920</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="31">
+        <v>0.513769075806496</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="31">
+        <v>0.51501510718393795</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="M16" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="31">
+        <v>0.51629485124017505</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="M17" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O17" s="15">
+        <v>0.73980000000000001</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="31">
+        <v>0.52342080456775997</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="17">
+        <v>0.72760000000000002</v>
+      </c>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="M18" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="31">
+        <v>0.52087643541804995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="31">
+        <v>0.50245810608615205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="31">
+        <v>0.51462171126802703</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="31">
+        <v>0.51131316562979301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="31">
+        <v>0.511388516453671</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="31">
+        <v>0.50787153610007796</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="31">
+        <v>0.50136649509967202</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="M1:Q1"/>
+  <mergeCells count="4">
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="M11:Q11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2396,4 +2797,118 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1000</v>
+      </c>
+      <c r="B2">
+        <v>636</v>
+      </c>
+      <c r="C2">
+        <v>182</v>
+      </c>
+      <c r="E2">
+        <v>636</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" s="32">
+        <f>12*B3*B2</f>
+        <v>343440</v>
+      </c>
+      <c r="C4" s="32">
+        <f>12*C3*C2</f>
+        <v>98280</v>
+      </c>
+      <c r="E4" s="32">
+        <f>12*E3*E2</f>
+        <v>381600</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="33">
+        <f>SUM(B4:C4)</f>
+        <v>441720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="33">
+        <v>381600</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="33">
+        <f>C6-C7</f>
+        <v>60120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/figures.xlsx
+++ b/figures.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="138">
   <si>
     <t>MonthlyRevenue</t>
   </si>
@@ -407,26 +407,51 @@
     <t>Bill</t>
   </si>
   <si>
-    <t>50% retained</t>
-  </si>
-  <si>
-    <t>No churn</t>
-  </si>
-  <si>
-    <t>0 retained</t>
-  </si>
-  <si>
-    <t>Total profit</t>
+    <t>Original bill</t>
+  </si>
+  <si>
+    <t>10% discount</t>
+  </si>
+  <si>
+    <t>New bill</t>
+  </si>
+  <si>
+    <t>Original customer pool</t>
+  </si>
+  <si>
+    <t>1000 people</t>
+  </si>
+  <si>
+    <t>Churn</t>
+  </si>
+  <si>
+    <t>No-Churn</t>
+  </si>
+  <si>
+    <t>100% retention</t>
+  </si>
+  <si>
+    <t>50% retention</t>
+  </si>
+  <si>
+    <t>People</t>
+  </si>
+  <si>
+    <t>0% retention</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -466,7 +491,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -686,12 +711,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -706,13 +776,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -722,16 +801,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1535,20 +1627,20 @@
       <c r="C2" t="s">
         <v>81</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="23"/>
-      <c r="M2" s="21" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="32"/>
+      <c r="M2" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="23"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="32"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1662,7 +1754,7 @@
       <c r="O5" s="2">
         <v>0.05</v>
       </c>
-      <c r="P5" s="29">
+      <c r="P5" s="26">
         <v>0.1</v>
       </c>
       <c r="Q5" s="6">
@@ -1679,16 +1771,16 @@
       <c r="C6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="26"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="23"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1706,18 +1798,18 @@
       <c r="H7" s="2">
         <v>0.72</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
       <c r="M7" s="18" t="s">
         <v>80</v>
       </c>
       <c r="N7" s="2">
         <v>0.71</v>
       </c>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="26"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="23"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1738,8 +1830,8 @@
       <c r="I8" s="14">
         <v>6.2E-2</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
       <c r="M8" s="18" t="s">
         <v>95</v>
       </c>
@@ -1749,8 +1841,8 @@
       <c r="O8" s="14">
         <v>5.33E-2</v>
       </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="26"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="23"/>
     </row>
     <row r="9" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G9" s="19" t="s">
@@ -1762,19 +1854,19 @@
       <c r="I9" s="17">
         <v>0.98480000000000001</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
       <c r="M9" s="19" t="s">
         <v>97</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="O9" s="30">
+      <c r="O9" s="27">
         <v>0.97599999999999998</v>
       </c>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="25"/>
     </row>
     <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -1785,29 +1877,29 @@
       <c r="A11" t="s">
         <v>116</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>0.672628989908576</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="M11" s="21" t="s">
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="M11" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="23"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="32"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>117</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>0.671992967032079</v>
       </c>
       <c r="G12" s="18"/>
@@ -1841,7 +1933,7 @@
       <c r="A13" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>0.50185950621820896</v>
       </c>
       <c r="G13" s="5">
@@ -1879,7 +1971,7 @@
       <c r="A14" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>0.51865876879647999</v>
       </c>
       <c r="G14" s="5">
@@ -1917,25 +2009,25 @@
       <c r="A15" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>0.513769075806496</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="23"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>0.51501510718393795</v>
       </c>
       <c r="G16" s="18" t="s">
@@ -1944,24 +2036,24 @@
       <c r="H16" s="2">
         <v>0.66</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
       <c r="M16" s="18" t="s">
         <v>80</v>
       </c>
       <c r="N16" s="2">
         <v>0.56999999999999995</v>
       </c>
-      <c r="O16" s="25"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="23"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>0.51629485124017505</v>
       </c>
       <c r="G17" s="18" t="s">
@@ -1973,8 +2065,8 @@
       <c r="I17" s="14">
         <v>0.5</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
       <c r="M17" s="18" t="s">
         <v>95</v>
       </c>
@@ -1984,14 +2076,14 @@
       <c r="O17" s="15">
         <v>0.73980000000000001</v>
       </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="23"/>
     </row>
     <row r="18" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="28">
         <v>0.52342080456775997</v>
       </c>
       <c r="G18" s="19" t="s">
@@ -2003,25 +2095,25 @@
       <c r="I18" s="17">
         <v>0.72760000000000002</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
       <c r="M18" s="19" t="s">
         <v>97</v>
       </c>
       <c r="N18" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="O18" s="30">
+      <c r="O18" s="27">
         <v>0.5</v>
       </c>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="25"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>0.52087643541804995</v>
       </c>
     </row>
@@ -2029,7 +2121,7 @@
       <c r="A20" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="28">
         <v>0.50245810608615205</v>
       </c>
     </row>
@@ -2037,7 +2129,7 @@
       <c r="A21" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="31">
+      <c r="B21" s="28">
         <v>0.51462171126802703</v>
       </c>
     </row>
@@ -2045,7 +2137,7 @@
       <c r="A22" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="31">
+      <c r="B22" s="28">
         <v>0.51131316562979301</v>
       </c>
     </row>
@@ -2053,7 +2145,7 @@
       <c r="A23" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="31">
+      <c r="B23" s="28">
         <v>0.511388516453671</v>
       </c>
     </row>
@@ -2061,7 +2153,7 @@
       <c r="A24" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="31">
+      <c r="B24" s="28">
         <v>0.50787153610007796</v>
       </c>
     </row>
@@ -2069,7 +2161,7 @@
       <c r="A25" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="31">
+      <c r="B25" s="28">
         <v>0.50136649509967202</v>
       </c>
     </row>
@@ -2801,114 +2893,221 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="B1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.140625" customWidth="1"/>
+    <col min="6" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:13" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" s="35"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="M2" s="38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="33"/>
+      <c r="C3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="36"/>
+      <c r="F3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" s="33"/>
+      <c r="L3" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" s="42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="41">
+        <v>671</v>
+      </c>
+      <c r="D4" s="44">
+        <v>329</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="41">
+        <v>335</v>
+      </c>
+      <c r="G4" s="44">
+        <v>329</v>
+      </c>
+      <c r="H4" s="33"/>
+      <c r="I4" s="41">
+        <v>0</v>
+      </c>
+      <c r="J4" s="44">
+        <v>329</v>
+      </c>
+      <c r="K4" s="33"/>
+      <c r="L4" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="C1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="M4" s="42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="41">
+        <v>45</v>
+      </c>
+      <c r="D5" s="44">
+        <v>45</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="41">
+        <v>45</v>
+      </c>
+      <c r="G5" s="44">
+        <v>45</v>
+      </c>
+      <c r="H5" s="33"/>
+      <c r="I5" s="41">
+        <v>50</v>
+      </c>
+      <c r="J5" s="44">
+        <v>50</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="46" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1000</v>
-      </c>
-      <c r="B2">
-        <v>636</v>
-      </c>
-      <c r="C2">
-        <v>182</v>
-      </c>
-      <c r="E2">
-        <v>636</v>
-      </c>
-      <c r="F2">
+      <c r="M5" s="47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="48">
+        <f>12*C5*C4</f>
+        <v>362340</v>
+      </c>
+      <c r="D6" s="49">
+        <f>12*D5*D4</f>
+        <v>177660</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="48">
+        <f>12*F5*F4</f>
+        <v>180900</v>
+      </c>
+      <c r="G6" s="49">
+        <f>12*G5*G4</f>
+        <v>177660</v>
+      </c>
+      <c r="H6" s="33"/>
+      <c r="I6" s="48">
+        <f>12*I5*I4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3">
-        <v>45</v>
-      </c>
-      <c r="C3">
-        <v>45</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" s="32">
-        <f>12*B3*B2</f>
-        <v>343440</v>
-      </c>
-      <c r="C4" s="32">
-        <f>12*C3*C2</f>
-        <v>98280</v>
-      </c>
-      <c r="E4" s="32">
-        <f>12*E3*E2</f>
-        <v>381600</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="33">
-        <f>SUM(B4:C4)</f>
-        <v>441720</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="33">
-        <v>381600</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="33">
-        <f>C6-C7</f>
-        <v>60120</v>
-      </c>
+      <c r="J6" s="49">
+        <f>12*J5*J4</f>
+        <v>197400</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="46"/>
+      <c r="D7" s="51">
+        <f>D6+C6</f>
+        <v>540000</v>
+      </c>
+      <c r="E7" s="33"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="51">
+        <f>G6+F6</f>
+        <v>358560</v>
+      </c>
+      <c r="H7" s="33"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="51">
+        <f>J6+I6</f>
+        <v>197400</v>
+      </c>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="29"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D10" s="29"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>